--- a/시나리오/메인 스토리/이벤트 날짜.xlsx
+++ b/시나리오/메인 스토리/이벤트 날짜.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤제\Desktop\게임개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Doc\GitHub\Last-Night\시나리오\메인 스토리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -113,6 +113,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <x:si>
+    <x:t xml:space="preserve">학생회 회의 
+행동 전부 마치고 퀘스트 체크 
+성공시 다음날로 
+실패시 배드엔딩 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생회 회의 
+행동 전부 마치고 퀘스트 체크 
+보스전</x:t>
+  </x:si>
+  <x:si>
     <x:t>학생회 첫 회의
 게임 진행방식 튜토리얼 
 퀘스트 발생</x:t>
@@ -127,57 +138,43 @@
     <x:t xml:space="preserve">12월 </x:t>
   </x:si>
   <x:si>
+    <x:t>금요일</x:t>
+  </x:si>
+  <x:si>
     <x:t>화요일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수요일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일요일</x:t>
   </x:si>
   <x:si>
     <x:t>글월고</x:t>
   </x:si>
   <x:si>
-    <x:t>일요일</x:t>
+    <x:t>토요일</x:t>
   </x:si>
   <x:si>
     <x:t>목요일</x:t>
   </x:si>
   <x:si>
-    <x:t>월요일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수요일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토요일</x:t>
+    <x:t>보스전</x:t>
   </x:si>
   <x:si>
     <x:t>메모:</x:t>
   </x:si>
   <x:si>
-    <x:t>금요일</x:t>
+    <x:t>월요일</x:t>
   </x:si>
   <x:si>
-    <x:t>보스전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생회 회의 
-행동 전부 마치고 퀘스트 체크 
-보스전</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">게임 시작일 
-미지 첫 조우
-프롤로그 + 학생회 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생회 회의 
-퀘스트 발생</x:t>
+    <x:t>엔딩</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">호감도 조건 만족시 데이트 이벤트 </x:t>
   </x:si>
   <x:si>
-    <x:t>한소원-주인공 조합 튜토리얼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔딩</x:t>
+    <x:t>주인공 -도래솔 1대1 대화</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -210,13 +207,16 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>학생회 회의</x:t>
+    <x:t xml:space="preserve">게임 시작일 
+미지 첫 조우
+프롤로그 + 학생회 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">학생회 회의 
-행동 전부 마치고 퀘스트 체크 
-성공시 다음날로 
-실패시 배드엔딩 </x:t>
+    <x:t>한소원-주인공 조합 튜토리얼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생회 회의 
+퀘스트 발생</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1569,6 +1569,84 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="35" borderId="6" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="center" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="35" borderId="6" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="center" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="36" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="center" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="36" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="center" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
           <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1615,84 +1693,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="35" borderId="6" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="35" borderId="6" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="36" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="36" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1751,6 +1751,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1833,6 +1834,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1867,6 +1869,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1911,6 +1914,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1954,6 +1958,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2038,6 +2043,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2058,6 +2064,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2088,6 +2095,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2118,7 +2126,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff747474"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2393,7 +2400,7 @@
   <x:dimension ref="A1:H14"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G10" activeCellId="0" sqref="G10:G10"/>
+      <x:selection activeCell="F6" activeCellId="0" sqref="F6:F6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.399999999999999"/>
@@ -2413,10 +2420,10 @@
     <x:row r="1" spans="1:8" ht="54" customHeight="1">
       <x:c r="A1" s="3"/>
       <x:c r="B1" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" s="7" t="s">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="3">
         <x:v>1</x:v>
@@ -2425,10 +2432,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1" s="3">
         <x:v>5</x:v>
@@ -2436,26 +2443,26 @@
     </x:row>
     <x:row r="2" spans="1:8" ht="14.25" customHeight="1">
       <x:c r="A2" s="5"/>
-      <x:c r="B2" s="27" t="s">
+      <x:c r="B2" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="23" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2" s="27" t="s">
+      <x:c r="E2" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="23" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G2" s="22" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H2" s="22" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F2" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="26" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H2" s="26" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:8" s="6" customFormat="1" ht="16.5" customHeight="1">
@@ -2482,11 +2489,11 @@
       <x:c r="C4" s="16"/>
       <x:c r="D4" s="20"/>
       <x:c r="E4" s="12"/>
-      <x:c r="F4" s="28" t="s">
-        <x:v>15</x:v>
+      <x:c r="F4" s="24" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" s="21" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H4" s="18"/>
     </x:row>
@@ -2514,15 +2521,15 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="2:8" ht="107.25" customHeight="1">
-      <x:c r="B6" s="31" t="s">
-        <x:v>0</x:v>
+      <x:c r="B6" s="27" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="12"/>
       <x:c r="F6" s="15" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="17" t="s">
         <x:v>13</x:v>
@@ -2555,13 +2562,13 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="2:8" ht="99" customHeight="1">
-      <x:c r="B8" s="29" t="s">
-        <x:v>16</x:v>
+      <x:c r="B8" s="25" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="12"/>
       <x:c r="E8" s="12"/>
-      <x:c r="F8" s="30" t="s">
-        <x:v>22</x:v>
+      <x:c r="F8" s="26" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="15" t="s">
         <x:v>13</x:v>
@@ -2587,24 +2594,24 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H9" s="11">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:8" ht="103.5" customHeight="1">
-      <x:c r="B10" s="29" t="s">
-        <x:v>16</x:v>
+      <x:c r="B10" s="25" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="16"/>
       <x:c r="D10" s="19"/>
       <x:c r="E10" s="12"/>
       <x:c r="F10" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="9"/>
     </x:row>
@@ -2628,22 +2635,22 @@
     </x:row>
     <x:row r="13" spans="2:8" s="6" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="B13" s="14"/>
-      <x:c r="C13" s="22" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D13" s="22"/>
-      <x:c r="E13" s="22"/>
-      <x:c r="F13" s="22"/>
-      <x:c r="G13" s="23"/>
+      <x:c r="C13" s="28" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D13" s="28"/>
+      <x:c r="E13" s="28"/>
+      <x:c r="F13" s="28"/>
+      <x:c r="G13" s="29"/>
       <x:c r="H13" s="11"/>
     </x:row>
     <x:row r="14" spans="2:8" ht="63.75" customHeight="1">
       <x:c r="B14" s="13"/>
-      <x:c r="C14" s="24"/>
-      <x:c r="D14" s="24"/>
-      <x:c r="E14" s="24"/>
-      <x:c r="F14" s="24"/>
-      <x:c r="G14" s="25"/>
+      <x:c r="C14" s="30"/>
+      <x:c r="D14" s="30"/>
+      <x:c r="E14" s="30"/>
+      <x:c r="F14" s="30"/>
+      <x:c r="G14" s="31"/>
       <x:c r="H14" s="10"/>
     </x:row>
   </x:sheetData>
